--- a/myapp/files/9_MethodComparePercent/Scenario 302.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 302.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2802</v>
+        <v>14532</v>
       </c>
       <c r="F2" t="n">
-        <v>3.14569908166244</v>
+        <v>2.83919622534606</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.44827586206897</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1473</v>
+        <v>11495</v>
       </c>
       <c r="F3" t="n">
-        <v>1.6536812088825</v>
+        <v>2.24584094483574</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -631,10 +631,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.44827586206897</v>
+        <v>3.06513409961686</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>6749</v>
+        <v>26130</v>
       </c>
       <c r="F4" t="n">
-        <v>7.57684621775153</v>
+        <v>5.10516084284975</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -669,10 +669,10 @@
         <v>7.04225352112676</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J4" t="n">
-        <v>8.62068965517241</v>
+        <v>6.13026819923372</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>8714</v>
+        <v>45890</v>
       </c>
       <c r="F5" t="n">
-        <v>9.7828771583178</v>
+        <v>8.96577998769135</v>
       </c>
       <c r="G5" t="n">
         <v>7</v>
@@ -707,10 +707,10 @@
         <v>9.85915492957746</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>10.3448275862069</v>
+        <v>6.51340996168582</v>
       </c>
       <c r="K5" t="n">
         <v>9</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>14798</v>
+        <v>34430</v>
       </c>
       <c r="F6" t="n">
-        <v>16.6131531086512</v>
+        <v>6.72677718405345</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J6" t="n">
-        <v>10.3448275862069</v>
+        <v>6.13026819923372</v>
       </c>
       <c r="K6" t="n">
         <v>5</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>1600</v>
+        <v>5468</v>
       </c>
       <c r="F7" t="n">
-        <v>1.79625929002852</v>
+        <v>1.06831303056649</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.72413793103448</v>
+        <v>2.68199233716475</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>5877</v>
+        <v>19518</v>
       </c>
       <c r="F8" t="n">
-        <v>6.59788490468599</v>
+        <v>3.81333828284506</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -821,10 +821,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>5.17241379310345</v>
+        <v>4.98084291187739</v>
       </c>
       <c r="K8" t="n">
         <v>5</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>6273</v>
+        <v>29363</v>
       </c>
       <c r="F9" t="n">
-        <v>7.04245907896805</v>
+        <v>5.73680971406801</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
-        <v>10.3448275862069</v>
+        <v>8.42911877394636</v>
       </c>
       <c r="K9" t="n">
         <v>7</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>4264</v>
+        <v>30962</v>
       </c>
       <c r="F10" t="n">
-        <v>4.78703100792599</v>
+        <v>6.04921507907822</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -897,10 +897,10 @@
         <v>8.45070422535211</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>3.44827586206897</v>
+        <v>7.27969348659004</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>260</v>
+        <v>27460</v>
       </c>
       <c r="F11" t="n">
-        <v>0.291892134629634</v>
+        <v>5.36501020836793</v>
       </c>
       <c r="G11" t="n">
         <v>4</v>
@@ -935,10 +935,10 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>1.72413793103448</v>
+        <v>6.51340996168582</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>1449</v>
+        <v>4200</v>
       </c>
       <c r="F12" t="n">
-        <v>1.62673731953207</v>
+        <v>0.820576943741635</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>1.72413793103448</v>
+        <v>1.14942528735632</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3427</v>
+        <v>19684</v>
       </c>
       <c r="F13" t="n">
-        <v>3.84736286682983</v>
+        <v>3.84577060966913</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -1011,10 +1011,10 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>5.17241379310345</v>
+        <v>3.44827586206897</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>9393</v>
+        <v>37564</v>
       </c>
       <c r="F14" t="n">
-        <v>10.5451646945237</v>
+        <v>7.33908388445495</v>
       </c>
       <c r="G14" t="n">
         <v>7</v>
@@ -1049,10 +1049,10 @@
         <v>9.85915492957746</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J14" t="n">
-        <v>8.62068965517241</v>
+        <v>6.13026819923372</v>
       </c>
       <c r="K14" t="n">
         <v>7</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>4268</v>
+        <v>41552</v>
       </c>
       <c r="F15" t="n">
-        <v>4.79152165615107</v>
+        <v>8.11824123008391</v>
       </c>
       <c r="G15" t="n">
         <v>13</v>
@@ -1087,10 +1087,10 @@
         <v>18.3098591549296</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>5.17241379310345</v>
+        <v>6.13026819923372</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>35381</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>6.9125792491721</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1125,10 +1125,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4.59770114942529</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>1260</v>
+        <v>3852</v>
       </c>
       <c r="F17" t="n">
-        <v>1.41455419089746</v>
+        <v>0.752586282688757</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.72413793103448</v>
+        <v>0.766283524904215</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>900</v>
+        <v>9445</v>
       </c>
       <c r="F18" t="n">
-        <v>1.01039585064104</v>
+        <v>1.8453212461047</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.72413793103448</v>
+        <v>1.53256704980843</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>15696</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.06661326404017</v>
       </c>
       <c r="G19" t="n">
         <v>7</v>
@@ -1239,10 +1239,10 @@
         <v>9.85915492957746</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.44827586206897</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>1320</v>
+        <v>25181</v>
       </c>
       <c r="F20" t="n">
-        <v>1.48191391427353</v>
+        <v>4.9197495286567</v>
       </c>
       <c r="G20" t="n">
         <v>5</v>
@@ -1277,10 +1277,10 @@
         <v>7.04225352112676</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J20" t="n">
-        <v>3.44827586206897</v>
+        <v>6.13026819923372</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>756</v>
+        <v>21772</v>
       </c>
       <c r="F21" t="n">
-        <v>0.848732514538474</v>
+        <v>4.2537145759864</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>1.72413793103448</v>
+        <v>4.59770114942529</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>2160</v>
+        <v>3728</v>
       </c>
       <c r="F22" t="n">
-        <v>2.4249500415385</v>
+        <v>0.728359725302099</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.72413793103448</v>
+        <v>0.766283524904215</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2430</v>
+        <v>6399</v>
       </c>
       <c r="F23" t="n">
-        <v>2.72806879673081</v>
+        <v>1.25020758642922</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1.72413793103448</v>
+        <v>0.766283524904215</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>2430</v>
+        <v>6921</v>
       </c>
       <c r="F24" t="n">
-        <v>2.72806879673081</v>
+        <v>1.35219357800854</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.72413793103448</v>
+        <v>1.14942528735632</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>2430</v>
+        <v>13943</v>
       </c>
       <c r="F25" t="n">
-        <v>2.72806879673081</v>
+        <v>2.72412007775943</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1467,10 +1467,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>1.72413793103448</v>
+        <v>2.68199233716475</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>4041</v>
+        <v>21269</v>
       </c>
       <c r="F26" t="n">
-        <v>4.53667736937827</v>
+        <v>4.1554407182002</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>5.17241379310345</v>
+        <v>2.68199233716475</v>
       </c>
       <c r="K26" t="n">
         <v>5</v>
